--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\Google Drive\courses\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3950B8-090B-4EE8-BB8D-2E6A2613E15A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB924097-B5F0-45DA-9C4E-7654D5BC49D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,21 +410,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">6.2 and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7.3.1.3</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">6.3-4 and </t>
     </r>
     <r>
@@ -539,6 +524,42 @@
     <t>legacy dbs, object-oriented dbs, XML dbs, NoSQL dbs.
 SQL injection attacks.</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.2 and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.3.1.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Skip 1NF, 2NF and 4NF. We study only BCNF and 3NF. Use definitions provided in class for these.)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -547,7 +568,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,6 +657,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -736,9 +764,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -752,22 +777,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -776,9 +786,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -788,9 +795,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -852,10 +856,33 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -882,6 +909,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1224,28 +1254,28 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28:G31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="6.42578125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="11" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="9"/>
-    <col min="7" max="7" width="24.28515625" style="34" customWidth="1"/>
-    <col min="8" max="8" width="48" style="11" customWidth="1"/>
-    <col min="9" max="9" width="37.85546875" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="6.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="26" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="50.140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="37.85546875" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -1261,82 +1291,82 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="46" t="s">
-        <v>97</v>
+      <c r="F1" s="38" t="s">
+        <v>96</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>88</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="27">
         <v>44585</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="42" t="s">
         <v>49</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="14" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="39" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="27">
         <f>C2+3</f>
         <v>44588</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="60" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="31" t="s">
+      <c r="F3" s="43"/>
+      <c r="G3" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="14">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="39" t="str">
+      <c r="B4" s="31" t="str">
         <f>B2</f>
         <v>Mon</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="27">
         <f>C2+7</f>
         <v>44592</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="22">
         <v>3.3</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -1344,682 +1374,670 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="39" t="str">
+      <c r="A5" s="14"/>
+      <c r="B5" s="31" t="str">
         <f>B3</f>
         <v>Thu</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="27">
         <f>C3+7</f>
         <v>44595</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="60" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="H5" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <f t="shared" ref="A6" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="39" t="str">
+      <c r="B6" s="31" t="str">
         <f t="shared" ref="B6:B31" si="1">B4</f>
         <v>Mon</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="27">
         <f t="shared" ref="C6:C31" si="2">C4+7</f>
         <v>44599</v>
       </c>
-      <c r="D6" s="51"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="14" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="39" t="str">
+      <c r="A7" s="14"/>
+      <c r="B7" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="27">
         <f t="shared" si="2"/>
         <v>44602</v>
       </c>
-      <c r="D7" s="51"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="F7" s="43"/>
+      <c r="G7" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="14">
         <f t="shared" ref="A8" si="3">A6+1</f>
         <v>4</v>
       </c>
-      <c r="B8" s="39" t="str">
+      <c r="B8" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="27">
         <f t="shared" si="2"/>
         <v>44606</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="60" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="40" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="39" t="str">
+      <c r="A9" s="14"/>
+      <c r="B9" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="27">
         <f t="shared" si="2"/>
         <v>44609</v>
       </c>
-      <c r="D9" s="51"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="49" t="s">
+      <c r="F9" s="43"/>
+      <c r="G9" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="40" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="14">
         <f t="shared" ref="A10" si="4">A8+1</f>
         <v>5</v>
       </c>
-      <c r="B10" s="39" t="str">
+      <c r="B10" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="27">
         <f t="shared" si="2"/>
         <v>44613</v>
       </c>
-      <c r="D10" s="51"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="H10" s="39" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="39" t="str">
+      <c r="A11" s="14"/>
+      <c r="B11" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="27">
         <f t="shared" si="2"/>
         <v>44616</v>
       </c>
-      <c r="D11" s="51"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="49" t="s">
+      <c r="F11" s="43"/>
+      <c r="G11" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43">
+    <row r="12" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
         <f t="shared" ref="A12" si="5">A10+1</f>
         <v>6</v>
       </c>
-      <c r="B12" s="40" t="str">
+      <c r="B12" s="32" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="28">
         <f t="shared" si="2"/>
         <v>44620</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="25"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="39" t="str">
+      <c r="A13" s="14"/>
+      <c r="B13" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="27">
         <f t="shared" si="2"/>
         <v>44623</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="42" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="14"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="14">
         <f t="shared" ref="A14" si="6">A12+1</f>
         <v>7</v>
       </c>
-      <c r="B14" s="39" t="str">
+      <c r="B14" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="27">
         <f t="shared" si="2"/>
         <v>44627</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="42" t="s">
         <v>45</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="31" t="s">
+      <c r="F14" s="43"/>
+      <c r="G14" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="39" t="str">
+      <c r="A15" s="14"/>
+      <c r="B15" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="27">
         <f t="shared" si="2"/>
         <v>44630</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="42" t="s">
         <v>81</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="14"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="39" t="str">
+      <c r="A16" s="14"/>
+      <c r="B16" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="27">
         <f t="shared" si="2"/>
         <v>44634</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="33"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="39" t="str">
+      <c r="A17" s="14"/>
+      <c r="B17" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="27">
         <f t="shared" si="2"/>
         <v>44637</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
         <v>8</v>
       </c>
-      <c r="B18" s="39" t="str">
+      <c r="B18" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="27">
         <f t="shared" si="2"/>
         <v>44641</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="60" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="H18" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="11"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="39" t="str">
+      <c r="A19" s="14"/>
+      <c r="B19" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="27">
         <f t="shared" si="2"/>
         <v>44644</v>
       </c>
-      <c r="D19" s="51"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="31" t="s">
+      <c r="F19" s="43"/>
+      <c r="G19" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="14">
         <f>A18+1</f>
         <v>9</v>
       </c>
-      <c r="B20" s="39" t="str">
+      <c r="B20" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="27">
         <f t="shared" si="2"/>
         <v>44648</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="42" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="39" t="str">
+      <c r="G20" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="27">
         <f t="shared" si="2"/>
         <v>44651</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="51" t="s">
         <v>82</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="14"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="A22" s="14">
         <f t="shared" ref="A22" si="7">A20+1</f>
         <v>10</v>
       </c>
-      <c r="B22" s="39" t="str">
+      <c r="B22" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="27">
         <f t="shared" si="2"/>
         <v>44655</v>
       </c>
-      <c r="D22" s="53"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="39" t="str">
+      <c r="G22" s="30"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="27">
         <f t="shared" si="2"/>
         <v>44658</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="51" t="s">
         <v>47</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="14" t="s">
+      <c r="F23" s="46"/>
+      <c r="G23" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+      <c r="A24" s="14">
         <f t="shared" ref="A24" si="8">A22+1</f>
         <v>11</v>
       </c>
-      <c r="B24" s="39" t="str">
+      <c r="B24" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="27">
         <f t="shared" si="2"/>
         <v>44662</v>
       </c>
-      <c r="D24" s="53"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>102</v>
+      <c r="G24" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="39" t="str">
+      <c r="A25" s="14"/>
+      <c r="B25" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="27">
         <f t="shared" si="2"/>
         <v>44665</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="42" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="G25" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="14"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+      <c r="A26" s="14">
         <f t="shared" ref="A26" si="9">A24+1</f>
         <v>12</v>
       </c>
-      <c r="B26" s="39" t="str">
+      <c r="B26" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="27">
         <f t="shared" si="2"/>
         <v>44669</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="42" t="s">
         <v>41</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="14"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="39" t="str">
+      <c r="A27" s="14"/>
+      <c r="B27" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="27">
         <f t="shared" si="2"/>
         <v>44672</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="42" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+      <c r="G27" s="23"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
         <f t="shared" ref="A28" si="10">A26+1</f>
         <v>13</v>
       </c>
-      <c r="B28" s="39" t="str">
+      <c r="B28" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="27">
         <f t="shared" si="2"/>
         <v>44676</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="51" t="s">
         <v>68</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="29" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="41" t="str">
+      <c r="H28" s="57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
+      <c r="B29" s="33" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="29">
         <f t="shared" si="2"/>
         <v>44679</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="27" t="s">
+      <c r="D29" s="53"/>
+      <c r="E29" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="56"/>
-      <c r="H29" s="59"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="58"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+      <c r="A30" s="14">
         <f t="shared" ref="A30" si="11">A28+1</f>
         <v>14</v>
       </c>
-      <c r="B30" s="39" t="str">
+      <c r="B30" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Mon</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="27">
         <f t="shared" si="2"/>
         <v>44683</v>
       </c>
-      <c r="D30" s="54"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="56"/>
-      <c r="H30" s="59"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="58"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="39" t="str">
+      <c r="A31" s="14"/>
+      <c r="B31" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Thu</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="27">
         <f t="shared" si="2"/>
         <v>44686</v>
       </c>
-      <c r="D31" s="53"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="60"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="59"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="39" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="42" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="6"/>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" spans="4:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="21"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="21"/>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D34" s="11"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="9"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D35" s="50"/>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D37" s="11"/>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D38" s="21"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D16:E17"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="G28:G31"/>
     <mergeCell ref="H28:H31"/>
     <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D16:E17"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\Google Drive\courses\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB924097-B5F0-45DA-9C4E-7654D5BC49D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CA91FB-5419-4B73-947A-D33B6FEEF58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t>Class number</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>7.3.1.5-8</t>
-  </si>
-  <si>
-    <t>SQL: [join with comma], join, inner join … on, left/right/full outer join, nested queries, correlated queries, all, any</t>
   </si>
   <si>
     <t>SQL: exists, union, intersect, except, insert into … values, delete from, update … set, alter table … add</t>
@@ -378,22 +375,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">mapping ER/EER to relational model
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SQL: order by, asc, desc</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">lightly read ch4;
 carefully read 6.1 and </t>
     </r>
@@ -559,6 +540,9 @@
       </rPr>
       <t>(Skip 1NF, 2NF and 4NF. We study only BCNF and 3NF. Use definitions provided in class for these.)</t>
     </r>
+  </si>
+  <si>
+    <t>SQL: [implicit join with comma], join, inner join … on, left/right/full outer join, nested queries, correlated queries, all, any</t>
   </si>
 </sst>
 </file>
@@ -1257,8 +1241,8 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,13 +1276,13 @@
         <v>0</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1320,7 +1304,7 @@
       <c r="F2" s="43"/>
       <c r="G2" s="22"/>
       <c r="H2" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1333,17 +1317,17 @@
         <v>44588</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="43"/>
       <c r="G3" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1364,13 +1348,13 @@
         <v>8</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="22">
         <v>3.3</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1390,13 +1374,13 @@
         <v>9</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="63" x14ac:dyDescent="0.25">
@@ -1418,13 +1402,13 @@
       </c>
       <c r="F6" s="43"/>
       <c r="G6" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="31" t="str">
         <f t="shared" si="1"/>
@@ -1440,10 +1424,12 @@
       </c>
       <c r="F7" s="43"/>
       <c r="G7" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="13" t="s">
         <v>92</v>
+      </c>
+      <c r="H7" s="13" t="e">
+        <f>H16
+                                                                                                                                                                                                                                                                SQL: order by, asc, desc</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1466,13 +1452,13 @@
         <v>12</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1494,7 +1480,7 @@
         <v>50</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1515,13 +1501,13 @@
         <v>14</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1540,10 +1526,10 @@
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="40" t="s">
         <v>54</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -1566,7 +1552,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="18"/>
@@ -1612,10 +1598,10 @@
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1629,13 +1615,13 @@
         <v>44630</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="13"/>
@@ -1693,13 +1679,13 @@
         <v>20</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I18" s="10"/>
     </row>
@@ -1719,13 +1705,13 @@
       </c>
       <c r="F19" s="43"/>
       <c r="G19" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <f>A18+1</f>
         <v>9</v>
@@ -1745,10 +1731,10 @@
         <v>22</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H20" s="13"/>
     </row>
@@ -1763,13 +1749,13 @@
         <v>44651</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="13"/>
@@ -1792,12 +1778,12 @@
         <v>24</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="31" t="str">
         <f t="shared" si="1"/>
@@ -1815,10 +1801,10 @@
       </c>
       <c r="F23" s="46"/>
       <c r="G23" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1839,10 +1825,10 @@
         <v>26</v>
       </c>
       <c r="G24" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1862,10 +1848,10 @@
         <v>27</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H25" s="13"/>
     </row>
@@ -1889,7 +1875,7 @@
         <v>28</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="13"/>
@@ -1927,19 +1913,19 @@
         <v>44676</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F28" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G28" s="54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H28" s="57" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -1978,7 +1964,7 @@
         <v>32</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G30" s="55"/>
       <c r="H30" s="58"/>
@@ -2014,7 +2000,7 @@
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="13"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\Google Drive\courses\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CA91FB-5419-4B73-947A-D33B6FEEF58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCEFDB7-3479-429F-9C56-9913B3710F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
   <si>
     <t>Class number</t>
   </si>
@@ -543,6 +543,22 @@
   </si>
   <si>
     <t>SQL: [implicit join with comma], join, inner join … on, left/right/full outer join, nested queries, correlated queries, all, any</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mapping ER/EER to relational model
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SQL: order by, asc, desc</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -867,6 +883,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -893,9 +912,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1241,8 +1257,8 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,7 +1332,7 @@
         <f>C2+3</f>
         <v>44588</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="51" t="s">
         <v>57</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -1343,7 +1359,7 @@
         <f>C2+7</f>
         <v>44592</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1367,7 +1383,7 @@
         <f>C3+7</f>
         <v>44595</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="51" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -1396,7 +1412,7 @@
         <f t="shared" ref="C6:C31" si="2">C4+7</f>
         <v>44599</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
@@ -1408,7 +1424,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="31" t="str">
         <f t="shared" si="1"/>
@@ -1418,7 +1434,7 @@
         <f t="shared" si="2"/>
         <v>44602</v>
       </c>
-      <c r="D7" s="60"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1426,10 +1442,8 @@
       <c r="G7" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="13" t="e">
-        <f>H16
-                                                                                                                                                                                                                                                                SQL: order by, asc, desc</f>
-        <v>#NAME?</v>
+      <c r="H7" s="13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1445,7 +1459,7 @@
         <f t="shared" si="2"/>
         <v>44606</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="51" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -1471,7 +1485,7 @@
         <f t="shared" si="2"/>
         <v>44609</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
@@ -1496,7 +1510,7 @@
         <f t="shared" si="2"/>
         <v>44613</v>
       </c>
-      <c r="D10" s="60"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="6" t="s">
         <v>14</v>
       </c>
@@ -1520,7 +1534,7 @@
         <f t="shared" si="2"/>
         <v>44616</v>
       </c>
-      <c r="D11" s="60"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="6" t="s">
         <v>15</v>
       </c>
@@ -1636,10 +1650,10 @@
         <f t="shared" si="2"/>
         <v>44634</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="60"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="45"/>
       <c r="G16" s="25"/>
       <c r="H16" s="8"/>
@@ -1654,8 +1668,8 @@
         <f t="shared" si="2"/>
         <v>44637</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
       <c r="F17" s="43"/>
       <c r="G17" s="22"/>
       <c r="H17" s="13"/>
@@ -1672,7 +1686,7 @@
         <f t="shared" si="2"/>
         <v>44641</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="51" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -1699,7 +1713,7 @@
         <f t="shared" si="2"/>
         <v>44644</v>
       </c>
-      <c r="D19" s="60"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="6" t="s">
         <v>21</v>
       </c>
@@ -1748,7 +1762,7 @@
         <f t="shared" si="2"/>
         <v>44651</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="52" t="s">
         <v>81</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -1773,7 +1787,7 @@
         <f t="shared" si="2"/>
         <v>44655</v>
       </c>
-      <c r="D22" s="52"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="6" t="s">
         <v>24</v>
       </c>
@@ -1793,7 +1807,7 @@
         <f t="shared" si="2"/>
         <v>44658</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="52" t="s">
         <v>47</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -1820,7 +1834,7 @@
         <f t="shared" si="2"/>
         <v>44662</v>
       </c>
-      <c r="D24" s="52"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="6" t="s">
         <v>26</v>
       </c>
@@ -1912,7 +1926,7 @@
         <f t="shared" si="2"/>
         <v>44676</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="52" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="6" t="s">
@@ -1921,10 +1935,10 @@
       <c r="F28" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="54" t="s">
+      <c r="G28" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="57" t="s">
+      <c r="H28" s="58" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1938,13 +1952,13 @@
         <f t="shared" si="2"/>
         <v>44679</v>
       </c>
-      <c r="D29" s="53"/>
+      <c r="D29" s="54"/>
       <c r="E29" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F29" s="47"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="58"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
@@ -1959,15 +1973,15 @@
         <f t="shared" si="2"/>
         <v>44683</v>
       </c>
-      <c r="D30" s="53"/>
+      <c r="D30" s="54"/>
       <c r="E30" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F30" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="55"/>
-      <c r="H30" s="58"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="59"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
@@ -1979,13 +1993,13 @@
         <f t="shared" si="2"/>
         <v>44686</v>
       </c>
-      <c r="D31" s="52"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F31" s="49"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="59"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="60"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
@@ -2014,16 +2028,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="D21:D22"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D16:E17"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="D21:D22"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmac\Google Drive\courses\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCEFDB7-3479-429F-9C56-9913B3710F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D651C4F6-F97C-4C3F-BDFE-F4ED5A3D3C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,9 +234,6 @@
     <t>query optimization, index search, join implementations</t>
   </si>
   <si>
-    <t>concurrency problems, locking protocols</t>
-  </si>
-  <si>
     <t>Final project + 
 Topic 7. Non-relational databases</t>
   </si>
@@ -560,6 +557,43 @@
       <t>SQL: order by, asc, desc</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">concurrency problems, locking protocols
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SQL: start transaction; commit; rollback; select…for update; select…lock in share mode / for share</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JDBC: setAutoCommit(), commit()</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -568,7 +602,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,6 +694,13 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1257,8 +1298,8 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1340,10 +1381,10 @@
       </c>
       <c r="F3" s="43"/>
       <c r="G3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1364,7 +1405,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="22">
         <v>3.3</v>
@@ -1390,13 +1431,13 @@
         <v>9</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="63" x14ac:dyDescent="0.25">
@@ -1418,10 +1459,10 @@
       </c>
       <c r="F6" s="43"/>
       <c r="G6" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1440,10 +1481,10 @@
       </c>
       <c r="F7" s="43"/>
       <c r="G7" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1466,7 +1507,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="39" t="s">
         <v>58</v>
@@ -1494,7 +1535,7 @@
         <v>50</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1515,7 +1556,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="41" t="s">
         <v>52</v>
@@ -1566,7 +1607,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="18"/>
@@ -1629,13 +1670,13 @@
         <v>44630</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="13"/>
@@ -1693,7 +1734,7 @@
         <v>20</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>61</v>
@@ -1745,10 +1786,10 @@
         <v>22</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H20" s="13"/>
     </row>
@@ -1763,13 +1804,13 @@
         <v>44651</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="13"/>
@@ -1792,12 +1833,12 @@
         <v>24</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="31" t="str">
         <f t="shared" si="1"/>
@@ -1815,10 +1856,10 @@
       </c>
       <c r="F23" s="46"/>
       <c r="G23" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1839,10 +1880,10 @@
         <v>26</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1862,10 +1903,10 @@
         <v>27</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H25" s="13"/>
     </row>
@@ -1889,7 +1930,7 @@
         <v>28</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="13"/>
@@ -1927,19 +1968,19 @@
         <v>44676</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F28" s="43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H28" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -1978,7 +2019,7 @@
         <v>32</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G30" s="56"/>
       <c r="H30" s="59"/>
@@ -2014,7 +2055,7 @@
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="13"/>
